--- a/docs/screen_design.xlsx
+++ b/docs/screen_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RikuHashiki\Desktop\IBM\work\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A0CA3-4E8E-42AF-A157-E8ECC5572E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB45CEF-32F6-422F-A752-0FD9214F4910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Top" sheetId="1" r:id="rId1"/>
@@ -25715,8 +25715,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11795124" y="1345098"/>
-          <a:ext cx="290125" cy="301625"/>
+          <a:off x="11845924" y="1341923"/>
+          <a:ext cx="299650" cy="307975"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -26143,8 +26143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4333643" y="439850"/>
-          <a:ext cx="503895" cy="195844"/>
+          <a:off x="4355868" y="439850"/>
+          <a:ext cx="507070" cy="199019"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -29901,8 +29901,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11791949" y="9984273"/>
-          <a:ext cx="296475" cy="301625"/>
+          <a:off x="11849099" y="9984273"/>
+          <a:ext cx="293300" cy="301625"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -30329,8 +30329,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4336818" y="9075850"/>
-          <a:ext cx="503895" cy="199019"/>
+          <a:off x="4352693" y="9079025"/>
+          <a:ext cx="507070" cy="195844"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -56747,7 +56747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FCACA-6DC7-401C-AE72-DE3E079FFA9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -56763,7 +56763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69014A3-5EAD-4553-AD53-38C69E5EB283}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>

--- a/docs/screen_design.xlsx
+++ b/docs/screen_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rikuhashiki\project\personal\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761432BD-2D0C-4D9C-8F96-3433DFFA0E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0145E02-0591-4DA1-8789-779D27F0F81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="635" firstSheet="2" activeTab="6" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="635" activeTab="3" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="23" r:id="rId1"/>
@@ -634,8 +634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6165850" y="558800"/>
-          <a:ext cx="299650" cy="293460"/>
+          <a:off x="6134100" y="561975"/>
+          <a:ext cx="306000" cy="287110"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -1985,8 +1985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4318675" y="442572"/>
-          <a:ext cx="490288" cy="201741"/>
+          <a:off x="4373104" y="438037"/>
+          <a:ext cx="502534" cy="194029"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -2487,13 +2487,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2510,8 +2510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="771526"/>
-          <a:ext cx="11658600" cy="7115174"/>
+          <a:off x="1981654" y="737508"/>
+          <a:ext cx="11257642" cy="6774996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,16 +2783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72570</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220435</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2807,8 +2807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4562475" y="1628775"/>
-          <a:ext cx="6467475" cy="3838575"/>
+          <a:off x="5370284" y="1597025"/>
+          <a:ext cx="4783365" cy="5006975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2858,16 +2858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>199574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2881,9 +2881,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="2333625"/>
-          <a:ext cx="6515100" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5923643" y="2222500"/>
+          <a:ext cx="3619500" cy="18145"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2913,16 +2913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>637269</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346529</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2937,8 +2937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="1724025"/>
-          <a:ext cx="1057275" cy="514350"/>
+          <a:off x="5934983" y="1671865"/>
+          <a:ext cx="1033689" cy="491671"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,16 +2983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592364</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363764</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3007,8 +3007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858250" y="4705349"/>
-          <a:ext cx="1828800" cy="447675"/>
+          <a:off x="7876721" y="5587545"/>
+          <a:ext cx="1758043" cy="424996"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3066,730 +3066,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4CCA79-7F65-4087-8B40-0044D2B843D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6400800" y="2666999"/>
-          <a:ext cx="4314825" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65C778D-F46B-42F5-BA75-39105A86B731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6372225" y="3171824"/>
-          <a:ext cx="4343400" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908576A5-51F8-4036-80E7-AB97685685DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391275" y="3714749"/>
-          <a:ext cx="4324350" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948D9FEF-2761-49E8-BD71-99FB37AFE0A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391275" y="4238624"/>
-          <a:ext cx="4314825" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDF9C01-7349-4BE3-8777-59C59879BC7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095874" y="2638424"/>
-          <a:ext cx="1247775" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF494C8D-5B81-43C3-B90E-2851EF7BF596}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076824" y="3676649"/>
-          <a:ext cx="1247775" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE65CBF-CA5B-4988-A094-AD3AC022AEA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4571999" y="4019549"/>
-          <a:ext cx="1495426" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>確認</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="四角形: 角を丸くする 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFDECC8-CE12-4E0A-B2DB-5C7017B5EF07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4638674" y="3009899"/>
-          <a:ext cx="1425576" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>メールアドレス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3174</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4024,8 +3300,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4318674" y="410821"/>
-          <a:ext cx="490288" cy="201741"/>
+          <a:off x="4373103" y="409461"/>
+          <a:ext cx="502534" cy="194029"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -4305,6 +3581,622 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589644</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>208644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6740097-9D43-4BA6-B212-2428884DD358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5887358" y="2975430"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596902</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5115BC60-5211-4D2D-8044-8424C14E8C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894616" y="3318333"/>
+          <a:ext cx="3603170" cy="1810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600527</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219527</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADDD11F-66F8-4129-AC2C-57EE009EC198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5898241" y="2322740"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>既に登録済みの方は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="A0D0A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="A0D0A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596902</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215902</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41866787-149A-4567-9A2D-F4F2988EDE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894616" y="3545116"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595088</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41733</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A991D58-C597-4BD4-9CFD-F7F834AE10DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5892802" y="3882571"/>
+          <a:ext cx="3659412" cy="14519"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596902</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215902</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28EAC75-D7B9-4186-BB27-C12AF12AA7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894616" y="4107544"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595088</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241302</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC03978-0C18-4263-A6A5-0C79765C0FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5892802" y="4441372"/>
+          <a:ext cx="3619500" cy="18145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596902</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215902</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348037A2-1E59-4FFB-B589-1E67004DD512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894616" y="4669972"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595088</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241302</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45AEEB7-61BE-4BF9-8C86-0745E295D000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5892802" y="5003800"/>
+          <a:ext cx="3619500" cy="18145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5431,23 +5323,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F003D407-4C42-4EE4-94FC-BF22871F34DA}"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB2A364-F2FE-4161-BA6F-F2F30403A5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5455,27 +5347,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4363357" y="1584779"/>
-          <a:ext cx="6144079" cy="3732892"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 2523"/>
-          </a:avLst>
+          <a:off x="1971675" y="209550"/>
+          <a:ext cx="11172825" cy="542924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln w="28575">
-          <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="127000" dist="63500" dir="3600000" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="30000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5506,602 +5393,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DEB0AF-B751-4EC5-BA6B-7901B7217813}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="2333625"/>
-          <a:ext cx="6515100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="A0D0A0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA4D173-6EEB-4708-B15E-D3C7385CFD16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4645024" y="1657350"/>
-          <a:ext cx="1812925" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1" spc="100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="A0D0A0"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDE5697-394D-4864-96BB-33DCB0C2D4A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391275" y="3076574"/>
-          <a:ext cx="4314825" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9546C6-C5D1-48CF-836E-BDB87116B66A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6391275" y="3714749"/>
-          <a:ext cx="4324350" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF12DDF-4F10-4AF7-98A0-4D4724A24AA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4886324" y="2927348"/>
-          <a:ext cx="1193800" cy="406401"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ユーザー名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5DE0EC-8BDB-4F3D-B759-F399D489C64A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879974" y="3536949"/>
-          <a:ext cx="1187450" cy="492126"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277F6BD8-562A-449D-AA68-C1B374B1D2CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8867775" y="4686299"/>
-          <a:ext cx="1828800" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31561"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:alpha val="17000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB2A364-F2FE-4161-BA6F-F2F30403A5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="209550"/>
-          <a:ext cx="11172825" cy="542924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>406401</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -6266,8 +5557,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4312325" y="423521"/>
-          <a:ext cx="499813" cy="201741"/>
+          <a:off x="4363579" y="418986"/>
+          <a:ext cx="508884" cy="194029"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -6547,6 +5838,647 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211364</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D41312-C60A-4623-824F-C71FD58B27F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5361213" y="1569358"/>
+          <a:ext cx="4783365" cy="3628572"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2523"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="127000" dist="63500" dir="3600000" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="30000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616858</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263072</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C774C7-AAF1-419F-AAE0-C60FCFED913F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5914572" y="2194832"/>
+          <a:ext cx="3619500" cy="18145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="A0D0A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628198</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FC509E-52D0-463D-9733-12BD0C3D8E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925912" y="1644197"/>
+          <a:ext cx="1648731" cy="491671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" b="1" spc="100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="A0D0A0"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583293</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354693</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF765CA-4A60-4670-BCE6-0282BB62CF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="4407805"/>
+          <a:ext cx="1758043" cy="424996"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31561"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="19000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580573</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199573</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F537B6-CD2C-43B7-B366-A00ECCA6BD10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5878287" y="2947762"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587831</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E974C6A7-B45C-4529-AFBB-BFB30F2AE1C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5885545" y="3290665"/>
+          <a:ext cx="3603170" cy="1810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591456</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210456</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10420CE-A4C2-409C-B497-81B2AA79BC34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5889170" y="2295072"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>まだ登録していない方は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="A0D0A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="A0D0A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587831</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206831</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14E4204-11FF-469F-91B6-B358F2B98D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5885545" y="3508376"/>
+          <a:ext cx="3592286" cy="335642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586017</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>213633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4992</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CFA8A6-EEAC-416A-B974-DE795F421E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5883731" y="3842204"/>
+          <a:ext cx="3619500" cy="18145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9172,8 +9104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11329305" y="3553733"/>
-          <a:ext cx="306000" cy="307522"/>
+          <a:off x="11483519" y="3488873"/>
+          <a:ext cx="306000" cy="302985"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -9309,8 +9241,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11359694" y="4819262"/>
-          <a:ext cx="286950" cy="301171"/>
+          <a:off x="11510733" y="4728547"/>
+          <a:ext cx="293300" cy="288926"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -9446,8 +9378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11370128" y="6145699"/>
-          <a:ext cx="296475" cy="297996"/>
+          <a:off x="11524342" y="6027771"/>
+          <a:ext cx="299650" cy="296634"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -9942,8 +9874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4309150" y="442571"/>
-          <a:ext cx="499813" cy="198566"/>
+          <a:off x="4366754" y="438036"/>
+          <a:ext cx="508884" cy="197204"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -11143,6 +11075,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67128</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>221481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564722C5-6C0A-4264-8C3C-6ADF433BE2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4647411" y="2772524"/>
+          <a:ext cx="149531" cy="158435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12450,8 +12435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4342013" y="436386"/>
-          <a:ext cx="504761" cy="195556"/>
+          <a:off x="4390793" y="433500"/>
+          <a:ext cx="513420" cy="189494"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -13609,8 +13594,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16859596" y="442736"/>
-          <a:ext cx="505627" cy="198443"/>
+          <a:off x="17079248" y="443025"/>
+          <a:ext cx="514286" cy="192381"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -16803,8 +16788,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="29386125" y="442736"/>
-          <a:ext cx="505627" cy="195268"/>
+          <a:off x="29763950" y="443025"/>
+          <a:ext cx="514286" cy="189206"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -21070,8 +21055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16859596" y="8941889"/>
-          <a:ext cx="505627" cy="198442"/>
+          <a:off x="17079248" y="8832496"/>
+          <a:ext cx="514286" cy="192380"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -25031,8 +25016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16880953" y="446200"/>
-          <a:ext cx="504761" cy="186031"/>
+          <a:off x="17094255" y="440139"/>
+          <a:ext cx="513420" cy="183144"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -26438,8 +26423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12027868" y="8935350"/>
-          <a:ext cx="659585" cy="701299"/>
+          <a:off x="12180557" y="8822782"/>
+          <a:ext cx="668244" cy="695815"/>
           <a:chOff x="12062385" y="8725919"/>
           <a:chExt cx="662641" cy="698228"/>
         </a:xfrm>
@@ -26584,8 +26569,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24492239" y="8806288"/>
-          <a:ext cx="659585" cy="677012"/>
+          <a:off x="24815800" y="8690545"/>
+          <a:ext cx="668244" cy="668353"/>
           <a:chOff x="12062385" y="8767856"/>
           <a:chExt cx="662641" cy="667924"/>
         </a:xfrm>
@@ -27300,8 +27285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16840978" y="10800597"/>
-          <a:ext cx="504761" cy="198730"/>
+          <a:off x="17054280" y="10668113"/>
+          <a:ext cx="513420" cy="192669"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -28306,8 +28291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24509514" y="19181332"/>
-          <a:ext cx="659585" cy="677012"/>
+          <a:off x="24826725" y="18932816"/>
+          <a:ext cx="668244" cy="668353"/>
           <a:chOff x="12062385" y="8767856"/>
           <a:chExt cx="662641" cy="667924"/>
         </a:xfrm>
@@ -28921,8 +28906,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22224548" y="16408465"/>
-          <a:ext cx="1650010" cy="486433"/>
+          <a:off x="22513473" y="16197472"/>
+          <a:ext cx="1675987" cy="477774"/>
           <a:chOff x="10955358" y="2410569"/>
           <a:chExt cx="1650876" cy="511956"/>
         </a:xfrm>
@@ -30226,8 +30211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16879676" y="461698"/>
-          <a:ext cx="507936" cy="186031"/>
+          <a:off x="17099328" y="452750"/>
+          <a:ext cx="510245" cy="192381"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -31565,8 +31550,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24568706" y="8999906"/>
-          <a:ext cx="659585" cy="677012"/>
+          <a:off x="24885917" y="8884163"/>
+          <a:ext cx="668244" cy="668353"/>
           <a:chOff x="12062385" y="8767856"/>
           <a:chExt cx="662641" cy="667924"/>
         </a:xfrm>
@@ -32277,8 +32262,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15860096" y="3372275"/>
-          <a:ext cx="8402345" cy="4066892"/>
+          <a:off x="16071089" y="3328691"/>
+          <a:ext cx="8503079" cy="4018401"/>
           <a:chOff x="15862405" y="10770604"/>
           <a:chExt cx="8403211" cy="3763999"/>
         </a:xfrm>
@@ -33331,8 +33316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16845740" y="10806803"/>
-          <a:ext cx="501586" cy="198731"/>
+          <a:off x="17065392" y="10668258"/>
+          <a:ext cx="510245" cy="195556"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -34670,8 +34655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24528420" y="19357711"/>
-          <a:ext cx="659585" cy="670662"/>
+          <a:off x="24851981" y="19109195"/>
+          <a:ext cx="668244" cy="662003"/>
           <a:chOff x="12062385" y="8767856"/>
           <a:chExt cx="662641" cy="667924"/>
         </a:xfrm>
@@ -36707,8 +36692,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4327169" y="10835288"/>
-          <a:ext cx="498411" cy="189206"/>
+          <a:off x="4379124" y="10693568"/>
+          <a:ext cx="510245" cy="189206"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -38182,15 +38167,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>624377</xdr:colOff>
+      <xdr:colOff>621202</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>78591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>332592</xdr:colOff>
+      <xdr:colOff>335767</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>201923</xdr:rowOff>
+      <xdr:rowOff>198748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -38221,8 +38206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3914832" y="16738682"/>
-          <a:ext cx="7608480" cy="2596657"/>
+          <a:off x="3954952" y="17699841"/>
+          <a:ext cx="7715565" cy="2739532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39588,8 +39573,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2726026" y="34671021"/>
-          <a:ext cx="9520670" cy="4312928"/>
+          <a:off x="2760662" y="34226521"/>
+          <a:ext cx="9641898" cy="4258087"/>
           <a:chOff x="28174950" y="1922030"/>
           <a:chExt cx="9632373" cy="4563341"/>
         </a:xfrm>
@@ -40728,8 +40713,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="29043535" y="452028"/>
-          <a:ext cx="513420" cy="186031"/>
+          <a:off x="29427710" y="449142"/>
+          <a:ext cx="513420" cy="183144"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -41666,8 +41651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36738049" y="8996586"/>
-          <a:ext cx="694221" cy="677012"/>
+          <a:off x="37217474" y="8880843"/>
+          <a:ext cx="699994" cy="668353"/>
           <a:chOff x="12062385" y="8767856"/>
           <a:chExt cx="662641" cy="667924"/>
         </a:xfrm>
@@ -44727,15 +44712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
+      <xdr:colOff>111578</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>353785</xdr:colOff>
+      <xdr:colOff>315685</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -44750,16 +44735,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9946821" y="28030714"/>
-          <a:ext cx="857250" cy="2231572"/>
+          <a:off x="10017578" y="27682371"/>
+          <a:ext cx="864507" cy="2207079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -46880,8 +46863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12048361" y="19305766"/>
-          <a:ext cx="653235" cy="707649"/>
+          <a:off x="12201050" y="19060425"/>
+          <a:ext cx="668244" cy="695815"/>
           <a:chOff x="12062385" y="8725919"/>
           <a:chExt cx="662641" cy="698228"/>
         </a:xfrm>
@@ -47026,8 +47009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12036135" y="29683364"/>
-          <a:ext cx="659585" cy="704474"/>
+          <a:off x="12191999" y="29305250"/>
+          <a:ext cx="668244" cy="698990"/>
           <a:chOff x="12062385" y="8725919"/>
           <a:chExt cx="662641" cy="698228"/>
         </a:xfrm>
@@ -47172,8 +47155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24522545" y="19344408"/>
-          <a:ext cx="662760" cy="704474"/>
+          <a:off x="24842931" y="19099067"/>
+          <a:ext cx="668244" cy="689754"/>
           <a:chOff x="12062385" y="8725919"/>
           <a:chExt cx="662641" cy="698228"/>
         </a:xfrm>
@@ -47318,8 +47301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36749182" y="8953500"/>
-          <a:ext cx="662760" cy="704474"/>
+          <a:off x="37225432" y="8840932"/>
+          <a:ext cx="665358" cy="692640"/>
           <a:chOff x="12062385" y="8725919"/>
           <a:chExt cx="662641" cy="698228"/>
         </a:xfrm>
@@ -47436,6 +47419,59 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="グラフィックス 27" descr="繰り返し">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6BEC0E-3FAA-49F2-AA0D-A3DE048B13CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId28"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="30003750"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -59477,7 +59513,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59492,8 +59528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F28A5E-2F0C-4840-9FEA-E0F6276897A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59509,7 +59545,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59524,8 +59560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FCACA-6DC7-401C-AE72-DE3E079FFA9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59540,8 +59576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127B1BC4-9B09-4AA9-B221-CB2327A1068C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/docs/screen_design.xlsx
+++ b/docs/screen_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rikuhashiki\project\personal\typing-game\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0145E02-0591-4DA1-8789-779D27F0F81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE541A79-4556-4C7E-BC2E-C099B2BE25DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="635" activeTab="3" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="635" activeTab="5" xr2:uid="{26660FC6-B29B-48A1-A2D1-CE439B0A69B1}"/>
   </bookViews>
   <sheets>
     <sheet name="atoms" sheetId="23" r:id="rId1"/>
@@ -634,8 +634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6134100" y="561975"/>
-          <a:ext cx="306000" cy="287110"/>
+          <a:off x="6165850" y="558800"/>
+          <a:ext cx="299650" cy="293460"/>
           <a:chOff x="12695852" y="2981325"/>
           <a:chExt cx="306000" cy="304800"/>
         </a:xfrm>
@@ -1325,14 +1325,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>683531</xdr:colOff>
+      <xdr:colOff>658131</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -1381,8 +1381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047874" y="800099"/>
-          <a:ext cx="11665857" cy="6124575"/>
+          <a:off x="1988003" y="766081"/>
+          <a:ext cx="11252199" cy="5829754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,7 +1405,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
@@ -1428,8 +1428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2038350" y="809624"/>
-          <a:ext cx="11677650" cy="7067551"/>
+          <a:off x="1984829" y="775606"/>
+          <a:ext cx="11259457" cy="6727373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,8 +1496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="781050"/>
-          <a:ext cx="11696700" cy="7105650"/>
+          <a:off x="1981654" y="747032"/>
+          <a:ext cx="11272157" cy="6765472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,8 +1582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3641724" y="2266950"/>
-          <a:ext cx="8750301" cy="838200"/>
+          <a:off x="3666670" y="2250621"/>
+          <a:ext cx="8815162" cy="830943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,8 +1679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="3409949"/>
-          <a:ext cx="1828800" cy="447675"/>
+          <a:off x="5469164" y="3251199"/>
+          <a:ext cx="1781629" cy="424996"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1762,8 +1762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="3419474"/>
-          <a:ext cx="1828800" cy="447675"/>
+          <a:off x="7932057" y="3260724"/>
+          <a:ext cx="1758043" cy="424996"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6557,15 +6557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>7258</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>229134</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>644073</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6580,8 +6580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1984829" y="1768929"/>
-          <a:ext cx="11078028" cy="5862491"/>
+          <a:off x="1993901" y="1737179"/>
+          <a:ext cx="11232243" cy="5749098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8238,15 +8238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41729</xdr:rowOff>
+      <xdr:colOff>27667</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22679</xdr:rowOff>
+      <xdr:colOff>389617</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8261,8 +8261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3928382" y="3280229"/>
-          <a:ext cx="2321379" cy="443593"/>
+          <a:off x="4000953" y="3107872"/>
+          <a:ext cx="2348593" cy="434521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8323,14 +8323,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34926</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>621394</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89354</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170997</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8345,8 +8345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3953783" y="3726997"/>
-          <a:ext cx="3852182" cy="294821"/>
+          <a:off x="4008212" y="3509282"/>
+          <a:ext cx="3897539" cy="290286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8426,16 +8426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>63046</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>101146</xdr:colOff>
+      <xdr:colOff>37646</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>158296</xdr:rowOff>
+      <xdr:rowOff>94795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8450,8 +8450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9207046" y="3324225"/>
-          <a:ext cx="1344386" cy="303892"/>
+          <a:off x="9270546" y="3197224"/>
+          <a:ext cx="1362529" cy="299357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -48351,8 +48351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12192000" y="434975"/>
-          <a:ext cx="155018" cy="171626"/>
+          <a:off x="12192000" y="422275"/>
+          <a:ext cx="155018" cy="152576"/>
           <a:chOff x="12523839" y="439686"/>
           <a:chExt cx="155018" cy="169988"/>
         </a:xfrm>
@@ -48776,8 +48776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4374171" y="426962"/>
-          <a:ext cx="503148" cy="213027"/>
+          <a:off x="4370996" y="411087"/>
+          <a:ext cx="506323" cy="193977"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -50548,8 +50548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12091147" y="424143"/>
-          <a:ext cx="155018" cy="154443"/>
+          <a:off x="12023912" y="428438"/>
+          <a:ext cx="155018" cy="165089"/>
           <a:chOff x="12523839" y="439686"/>
           <a:chExt cx="155018" cy="169988"/>
         </a:xfrm>
@@ -50903,8 +50903,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4337378" y="412955"/>
-          <a:ext cx="500720" cy="195844"/>
+          <a:off x="4318142" y="420425"/>
+          <a:ext cx="493809" cy="206490"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -52140,8 +52140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12091147" y="10296525"/>
-          <a:ext cx="155018" cy="157618"/>
+          <a:off x="12023912" y="10632702"/>
+          <a:ext cx="155018" cy="161913"/>
           <a:chOff x="12523839" y="439686"/>
           <a:chExt cx="155018" cy="169988"/>
         </a:xfrm>
@@ -52565,8 +52565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4340553" y="10282162"/>
-          <a:ext cx="497545" cy="199019"/>
+          <a:off x="4314967" y="10621514"/>
+          <a:ext cx="496984" cy="203314"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -53885,8 +53885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12091147" y="19437350"/>
-          <a:ext cx="155018" cy="163968"/>
+          <a:off x="12023912" y="20082995"/>
+          <a:ext cx="155018" cy="165089"/>
           <a:chOff x="12523839" y="439686"/>
           <a:chExt cx="155018" cy="169988"/>
         </a:xfrm>
@@ -54310,8 +54310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="4337378" y="19426162"/>
-          <a:ext cx="500720" cy="195844"/>
+          <a:off x="4318142" y="20068632"/>
+          <a:ext cx="493809" cy="206490"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -54784,8 +54784,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1972235" y="19760827"/>
-          <a:ext cx="11239500" cy="8095315"/>
+          <a:off x="1964765" y="20418239"/>
+          <a:ext cx="11176000" cy="8361081"/>
           <a:chOff x="1972235" y="10645589"/>
           <a:chExt cx="11239500" cy="8082615"/>
         </a:xfrm>
@@ -56579,8 +56579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="19556398">
-          <a:off x="16145203" y="412955"/>
-          <a:ext cx="507070" cy="199019"/>
+          <a:off x="16058731" y="420425"/>
+          <a:ext cx="496985" cy="203315"/>
           <a:chOff x="2182345" y="368572"/>
           <a:chExt cx="806492" cy="277269"/>
         </a:xfrm>
@@ -59513,7 +59513,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59528,7 +59528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F28A5E-2F0C-4840-9FEA-E0F6276897A5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
@@ -59560,8 +59560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FCACA-6DC7-401C-AE72-DE3E079FFA9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -59576,7 +59576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127B1BC4-9B09-4AA9-B221-CB2327A1068C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
